--- a/formulario/static/per_modelo.xlsx
+++ b/formulario/static/per_modelo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.castro\Documents\project-formulario\formulario\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E93A602-D310-45A2-948B-20C1C3C128A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4928ACB3-13D0-498B-84DE-3E28DE671536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{91779055-3BBA-415D-9254-2799077F9561}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Periculosidade" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Periculosidade!$A$1:$K$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Periculosidade!$A$1:$K$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Apto</t>
   </si>
@@ -92,24 +92,12 @@
     <t>Exposição Intermitente</t>
   </si>
   <si>
-    <t>Exposição Permanente</t>
-  </si>
-  <si>
     <t>Local(ais) de Atuação:</t>
   </si>
   <si>
     <t xml:space="preserve">Natureza do Risco: </t>
   </si>
   <si>
-    <t>Risco Elétrico</t>
-  </si>
-  <si>
-    <t>Inflamáveis</t>
-  </si>
-  <si>
-    <t>Explosivos</t>
-  </si>
-  <si>
     <t>Responsável pelo Preenchimento</t>
   </si>
   <si>
@@ -155,7 +143,22 @@
     <t>Registro do adicional de periculosidade</t>
   </si>
   <si>
-    <t>Outros:</t>
+    <t>Operações Perigosas Com Explosivos</t>
+  </si>
+  <si>
+    <t>Operações Perigosas Com Inflamáveis</t>
+  </si>
+  <si>
+    <t>Operações Perigosas Com Exposição A Roubos Ou Outras Espécies De Violência Física Nas Atividades Profissionais De Segurança Pessoal Ou Patrimonial</t>
+  </si>
+  <si>
+    <t>Atividades Perigosas Em Motocicleta</t>
+  </si>
+  <si>
+    <t>Atividades E Operações Perigosas Com Radiações Ionizantes Ou Substâncias Radiotivas</t>
+  </si>
+  <si>
+    <t>Operações Perigosas Com Energia Elétrica</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -399,9 +402,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -416,9 +416,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -435,6 +432,25 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -572,27 +588,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1008,10 +1032,10 @@
   <sheetPr codeName="Planilha2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K53"/>
+  <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScale="145" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1028,68 +1052,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1099,618 +1123,631 @@
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="47" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="21"/>
+      <c r="C13" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="21"/>
+      <c r="C14" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61"/>
+    </row>
+    <row r="15" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="21"/>
+      <c r="C15" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61"/>
+    </row>
+    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="75"/>
+      <c r="C16" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="61"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="61"/>
+    </row>
+    <row r="18" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="25"/>
+      <c r="J26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="2:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="29"/>
+      <c r="J30" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B32" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="J32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B33" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="29"/>
+      <c r="J33" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B34" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="29"/>
+      <c r="J34" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B36" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B39" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+    </row>
+    <row r="42" spans="2:11" ht="0.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B44" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B45" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="17"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B46" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32" t="s">
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="17"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B47" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="58"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="60"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="60"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="60"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="60"/>
-    </row>
-    <row r="17" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="34"/>
-    </row>
-    <row r="19" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="29" t="s">
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B50" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="2:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B32" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="28"/>
-      <c r="J32" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B33" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B34" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B35" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B38" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22" t="s">
+      <c r="C50" s="23"/>
+      <c r="D50" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="3" t="s">
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-    </row>
-    <row r="41" spans="2:11" ht="0.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B43" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B44" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="19"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B45" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="19"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B46" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>37</v>
-      </c>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B49" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
+      <c r="K50" s="3"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-    </row>
-    <row r="53" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+    </row>
+    <row r="54" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:I22"/>
-    <mergeCell ref="F9:K17"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="D20:I20"/>
+  <mergeCells count="60">
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:I23"/>
+    <mergeCell ref="F9:K18"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="C7:K7"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J21:K22"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J22:K23"/>
     <mergeCell ref="B1:C3"/>
     <mergeCell ref="D1:K3"/>
     <mergeCell ref="B4:K4"/>
@@ -1718,49 +1755,49 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B25:G25"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="B32:G32"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B35:G35"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="D50:I51"/>
-    <mergeCell ref="J50:K51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="D39:I40"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J40:K41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D51:I52"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:I41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="42" max="10" man="1"/>
+    <brk id="43" max="10" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
